--- a/software/functionalities/fun_2.xlsx
+++ b/software/functionalities/fun_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unavarra-my.sharepoint.com/personal/sola_146618_e_unavarra_es/Documents/Escritorio/PRACTICAS/VENTILADORES/funcionalidades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unavarra-my.sharepoint.com/personal/sola_146618_e_unavarra_es/Documents/Escritorio/PRACTICAS/VENTILADORES/JavaFAWT/software/functionalities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{7C803FA5-91A8-499A-908A-C71DE79208F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2540BD37-5808-4720-8267-B8B73A5FA31E}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{7C803FA5-91A8-499A-908A-C71DE79208F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B397D09F-2635-4D17-9B8F-2465E321B058}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6821E79B-E030-4E06-A8F5-5E441BDD30E2}"/>
   </bookViews>
@@ -141,14 +141,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -292,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80804853-67A5-4695-984F-057822B8511A}">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S63" sqref="S63:S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,7 +451,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B1" s="1">
         <v>100</v>
@@ -496,7 +492,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -537,7 +533,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -578,7 +574,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -619,7 +615,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -660,7 +656,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -701,7 +697,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -742,7 +738,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -783,7 +779,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -824,7 +820,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -865,7 +861,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -906,7 +902,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -948,7 +944,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B13" s="1">
         <v>100</v>
@@ -989,7 +985,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -1030,7 +1026,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -1071,7 +1067,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1112,7 +1108,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -1153,7 +1149,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -1194,7 +1190,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -1235,7 +1231,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -1276,7 +1272,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -1317,7 +1313,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -1358,7 +1354,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -1399,7 +1395,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -1440,7 +1436,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B25" s="1">
         <v>100</v>
@@ -1482,7 +1478,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -1523,7 +1519,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -1564,7 +1560,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -1605,7 +1601,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -1646,7 +1642,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -1687,7 +1683,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -1728,7 +1724,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -1769,7 +1765,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -1810,7 +1806,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -1851,7 +1847,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -1892,7 +1888,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -1933,7 +1929,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B37" s="1">
         <v>100</v>
@@ -1974,7 +1970,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -2015,7 +2011,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -2056,7 +2052,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -2097,7 +2093,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -2138,7 +2134,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -2179,7 +2175,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -2220,7 +2216,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -2261,7 +2257,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -2302,7 +2298,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -2343,7 +2339,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -2384,7 +2380,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -2423,9 +2419,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B49" s="1">
         <v>100</v>
@@ -2464,9 +2460,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -2505,9 +2501,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -2546,9 +2542,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -2587,9 +2583,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -2628,9 +2624,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -2669,9 +2665,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -2710,9 +2706,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -2751,9 +2747,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -2792,9 +2788,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -2833,9 +2829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -2874,9 +2870,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -2915,9 +2911,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B61" s="1">
         <v>100</v>
@@ -2956,9 +2952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -2997,9 +2993,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -3037,10 +3033,11 @@
       <c r="M63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="S63" s="3"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -3078,10 +3075,11 @@
       <c r="M64" s="2">
         <v>0</v>
       </c>
+      <c r="S64" s="3"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -3122,7 +3120,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -3163,7 +3161,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -3204,7 +3202,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -3245,7 +3243,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -3286,7 +3284,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -3327,7 +3325,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -3368,7 +3366,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -3405,6 +3403,16 @@
       </c>
       <c r="M72" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
